--- a/cpt-homes.xlsx
+++ b/cpt-homes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Code/Python/quay1-seapoint-properties-folium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD8396E-0B4C-2B42-8673-FAC1568EAE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6241B85-3E69-D643-8695-9FF941981221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{A975EEAE-8C6D-6C48-9642-1C8BAD47AD80}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
-    <t>275 Beach Road, Sea Point</t>
-  </si>
-  <si>
     <t>76 Kloof Road, Sea Point</t>
   </si>
   <si>
@@ -73,29 +70,40 @@
     <t>18.392672010931534</t>
   </si>
   <si>
-    <t>https://media.istockphoto.com/photos/modern-home-with-swimming-pool-picture-id147205632?k=20&amp;m=147205632&amp;s=612x612&amp;w=0&amp;h=R_VZIGFGFfs8lCGp4J_0nGYTWqkQPnwN37hrqS_tAAs=</t>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/upscale-modern-mansion-with-pool-picture-id1150545984?k=20&amp;m=1150545984&amp;s=612x612&amp;w=0&amp;h=w8SypIs8pulABfg1e0VdfB3CMh_VIKXLWDwbVa0ejTk=</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/fd/c5/b3/fdc5b3520870af529fa626369db16265.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/99/e1/68/99e1680922076b0b6e40a5d034e887dd.jpg</t>
-  </si>
-  <si>
     <t>https://www.quay1.co.za/results/residential/for-sale/cape-town/sea-point/flat/1329/</t>
+  </si>
+  <si>
+    <t>https://imgur.com/7DbyhLR</t>
+  </si>
+  <si>
+    <t>75 Beach Road, Sea Point</t>
+  </si>
+  <si>
+    <t>https://imgur.com/LjUxCu1</t>
+  </si>
+  <si>
+    <t>https://imgur.com/dt3eo2O</t>
+  </si>
+  <si>
+    <t>https://imgur.com/8fMcWMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,15 +126,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B8FA71-BE2D-B14B-8B44-9E1525A2A334}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,78 +460,81 @@
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{8AE152B9-65DF-7B44-A43B-49DFC662B9E2}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{428FD10B-2870-D645-892A-B087F6ECEF04}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{B7742FBB-1906-DF49-838F-40AAAC218AFB}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{68E51788-FE5C-3840-B2CC-8949EFC6DE98}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cpt-homes.xlsx
+++ b/cpt-homes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Code/Python/quay1-seapoint-properties-folium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6241B85-3E69-D643-8695-9FF941981221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBEDE0-37FD-F24C-A1E9-70EA7CF3037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{A975EEAE-8C6D-6C48-9642-1C8BAD47AD80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>76 Kloof Road, Sea Point</t>
   </si>
@@ -73,19 +73,25 @@
     <t>https://www.quay1.co.za/results/residential/for-sale/cape-town/sea-point/flat/1329/</t>
   </si>
   <si>
-    <t>https://imgur.com/7DbyhLR</t>
-  </si>
-  <si>
     <t>75 Beach Road, Sea Point</t>
   </si>
   <si>
-    <t>https://imgur.com/LjUxCu1</t>
-  </si>
-  <si>
-    <t>https://imgur.com/dt3eo2O</t>
-  </si>
-  <si>
-    <t>https://imgur.com/8fMcWMI</t>
+    <t>https://www.quay1.co.za/results/residential/for-sale/cape-town/sea-point/flat/1199/</t>
+  </si>
+  <si>
+    <t>https://www.quay1.co.za/results/residential/for-sale/cape-town/sea-point/flat/1092/</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dt3eo2O.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8fMcWMI.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LjUxCu1.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7DbyhLR.jpeg</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -493,6 +499,9 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -505,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -534,6 +543,8 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{428FD10B-2870-D645-892A-B087F6ECEF04}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{B7742FBB-1906-DF49-838F-40AAAC218AFB}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{68E51788-FE5C-3840-B2CC-8949EFC6DE98}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{57C15EA7-DC92-C641-ACA3-9EB8AC6C2CD4}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{587D3DCB-A511-0C48-9C72-4CF8FE1542E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
